--- a/nriss-patch-1/ig/StructureDefinition-pdsm-ext-intended-recipient.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-pdsm-ext-intended-recipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:25:51+00:00</t>
+    <t>2026-02-20T13:59:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
